--- a/assets/Coupon.xlsx
+++ b/assets/Coupon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casse\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cperr\Documents\GitHub\cresiracing\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3091410E-4335-48B5-8623-AE5520F36A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF2C54C-AE63-4D4D-8EC7-C8E4EDE085ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCEF4C51-CCED-48A9-8810-D0B35A5EAEB0}"/>
+    <workbookView xWindow="30624" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{FCEF4C51-CCED-48A9-8810-D0B35A5EAEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Entré</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Baptême</t>
   </si>
@@ -48,13 +45,31 @@
     <t>Combien de fois :</t>
   </si>
   <si>
-    <t>formule repas</t>
-  </si>
-  <si>
-    <t>Tombola</t>
-  </si>
-  <si>
-    <t>Colonne1</t>
+    <t>Entrée</t>
+  </si>
+  <si>
+    <t>Formule repas</t>
+  </si>
+  <si>
+    <t>Tombola (sur place)</t>
+  </si>
+  <si>
+    <t>Soit le total à payer :</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>coupon(s)</t>
+  </si>
+  <si>
+    <t>(maximum de 1 pour réservation)</t>
+  </si>
+  <si>
+    <t>Informations complémentaires</t>
+  </si>
+  <si>
+    <t>Choix</t>
   </si>
 </sst>
 </file>
@@ -70,12 +85,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,16 +117,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -126,11 +158,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}" name="Tableau3" displayName="Tableau3" ref="A1:B5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:B5" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{278A3427-F213-4970-9844-513A3F64B22C}" name="Colonne1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{89F890E3-CDA2-4990-890D-3EBF0AC1F141}" name="Combien de fois :" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}" name="Tableau3" displayName="Tableau3" ref="A1:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C5" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{278A3427-F213-4970-9844-513A3F64B22C}" name="Choix" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{89F890E3-CDA2-4990-890D-3EBF0AC1F141}" name="Combien de fois :" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{209013FC-CB9A-4BB2-A38D-BAA0B4F44A39}" name="Informations complémentaires" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -433,48 +466,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE8B1ED-7D60-4A6B-B9E4-7E6FF6C3D15A}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -483,7 +525,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -492,16 +534,36 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B9">
         <f>B2+B3*6+B4+B5</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B9*5</f>
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{13D4FA3A-3363-46AB-A57F-5FB380A396A1}">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/assets/Coupon.xlsx
+++ b/assets/Coupon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cperr\Documents\GitHub\cresiracing\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF2C54C-AE63-4D4D-8EC7-C8E4EDE085ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9895CD-213C-4F53-8C16-06B663983E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30624" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{FCEF4C51-CCED-48A9-8810-D0B35A5EAEB0}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FCEF4C51-CCED-48A9-8810-D0B35A5EAEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -54,29 +54,29 @@
     <t>Tombola (sur place)</t>
   </si>
   <si>
-    <t>Soit le total à payer :</t>
-  </si>
-  <si>
     <t>€</t>
   </si>
   <si>
     <t>coupon(s)</t>
   </si>
   <si>
-    <t>(maximum de 1 pour réservation)</t>
-  </si>
-  <si>
     <t>Informations complémentaires</t>
   </si>
   <si>
     <t>Choix</t>
+  </si>
+  <si>
+    <t>(possible d'en prendre en plus sur place)</t>
+  </si>
+  <si>
+    <t>Soit le total à payer (net) :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +84,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +112,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,25 +133,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -158,12 +206,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}" name="Tableau3" displayName="Tableau3" ref="A1:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C5" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{278A3427-F213-4970-9844-513A3F64B22C}" name="Choix" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{89F890E3-CDA2-4990-890D-3EBF0AC1F141}" name="Combien de fois :" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{209013FC-CB9A-4BB2-A38D-BAA0B4F44A39}" name="Informations complémentaires" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}" name="Tableau3" displayName="Tableau3" ref="A1:B5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B5" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{278A3427-F213-4970-9844-513A3F64B22C}" name="Choix" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{89F890E3-CDA2-4990-890D-3EBF0AC1F141}" name="Combien de fois :" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,75 +513,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE8B1ED-7D60-4A6B-B9E4-7E6FF6C3D15A}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -543,30 +583,34 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <f>B9*5</f>
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C5"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{13D4FA3A-3363-46AB-A57F-5FB380A396A1}">
-      <formula1>"0,1"</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{8BFAAEDB-F68B-44DA-A953-350DF90FFA70}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/assets/Coupon.xlsx
+++ b/assets/Coupon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cperr\Documents\GitHub\cresiracing\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casse\Documents\GitHub\cresiracing\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9895CD-213C-4F53-8C16-06B663983E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998B1913-6FBA-482B-B094-5154ADF995D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FCEF4C51-CCED-48A9-8810-D0B35A5EAEB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCEF4C51-CCED-48A9-8810-D0B35A5EAEB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Baptême</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Soit le total à payer (net) :</t>
+  </si>
+  <si>
+    <t>Coupon(s)</t>
+  </si>
+  <si>
+    <t>1 pour 5€</t>
+  </si>
+  <si>
+    <t>6 pour 30€</t>
   </si>
 </sst>
 </file>
@@ -179,7 +188,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -206,11 +218,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}" name="Tableau3" displayName="Tableau3" ref="A1:B5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B5" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{278A3427-F213-4970-9844-513A3F64B22C}" name="Choix" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{89F890E3-CDA2-4990-890D-3EBF0AC1F141}" name="Combien de fois :" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}" name="Tableau3" displayName="Tableau3" ref="A1:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C5" xr:uid="{D2A48DE0-1D2A-4B43-9C92-7C7BA1F63A73}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{278A3427-F213-4970-9844-513A3F64B22C}" name="Choix" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{89F890E3-CDA2-4990-890D-3EBF0AC1F141}" name="Combien de fois :" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3CCE1D49-AFAF-489F-BCB2-D98EB2BC3639}" name="Coupon(s)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -513,20 +526,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE8B1ED-7D60-4A6B-B9E4-7E6FF6C3D15A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="3" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -534,47 +547,61 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -586,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -600,7 +627,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{8BFAAEDB-F68B-44DA-A953-350DF90FFA70}">
@@ -608,7 +635,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
